--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="44">
   <si>
     <t>1.12.2</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>momentariymodder.xyz</t>
+  </si>
+  <si>
+    <t>Storage Crate</t>
   </si>
 </sst>
 </file>
@@ -380,75 +383,75 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B23" sqref="A1:L23"/>
+      <selection sqref="A1:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,508 +747,532 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="21" t="s">
+      <c r="C3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="C4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="21" t="s">
+      <c r="C5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="C6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="22" t="s">
+      <c r="D7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="D9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="23" t="s">
+      <c r="I9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L9" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="23" t="s">
+      <c r="I10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L10" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="D11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="F12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="C13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="F13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="21" t="s">
+      <c r="C14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="J14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
@@ -1264,21 +1291,13 @@
     <row r="16" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -1286,19 +1305,19 @@
     <row r="17" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>36</v>
+      <c r="C17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>39</v>
+      <c r="G17" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
@@ -1308,19 +1327,19 @@
     <row r="18" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>38</v>
+      <c r="C18" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>40</v>
+      <c r="G18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
@@ -1330,49 +1349,51 @@
     <row r="19" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="G19" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="10"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>33</v>
+      <c r="C21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="29" t="s">
-        <v>42</v>
-      </c>
+      <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -1382,16 +1403,16 @@
     <row r="22" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>34</v>
+      <c r="C22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="29" t="s">
-        <v>41</v>
+      <c r="G22" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -1399,19 +1420,39 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -736,7 +736,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:L24"/>
+      <selection activeCell="L1" sqref="A1:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,11 +957,11 @@
       <c r="H6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="21" t="s">
+      <c r="I6" s="21" t="s">
         <v>13</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>13</v>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="46">
   <si>
     <t>1.12.2</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Storage Crate</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>- server</t>
   </si>
 </sst>
 </file>
@@ -733,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L24"/>
+      <selection sqref="A1:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,14 +808,14 @@
       <c r="G2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>11</v>
+      <c r="H2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>13</v>
@@ -1411,9 +1417,7 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="G22" s="28"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -1432,7 +1436,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1440,19 +1444,39 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -814,8 +814,8 @@
       <c r="I2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="23" t="s">
-        <v>10</v>
+      <c r="J2" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>13</v>
@@ -890,8 +890,8 @@
       <c r="I4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>10</v>
+      <c r="J4" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>13</v>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="56">
   <si>
     <t>1.12.2</t>
   </si>
@@ -163,6 +163,36 @@
   </si>
   <si>
     <t>- server</t>
+  </si>
+  <si>
+    <t>NF - NeoForge</t>
+  </si>
+  <si>
+    <t>FM - Fabric</t>
+  </si>
+  <si>
+    <t>LF - Forge</t>
+  </si>
+  <si>
+    <t>QM - Quilt</t>
+  </si>
+  <si>
+    <t>Active/A</t>
+  </si>
+  <si>
+    <t>LF/NF</t>
+  </si>
+  <si>
+    <t>FM/QM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Planned/P</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -356,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,12 +431,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,9 +441,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -458,6 +479,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,562 +784,609 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:L25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N26" sqref="A1:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="3" max="12" width="36.7109375" customWidth="1"/>
+    <col min="3" max="10" width="36.7109375" customWidth="1"/>
+    <col min="11" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="C3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="L5" s="36"/>
+      <c r="M5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="23" t="s">
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J9" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="35"/>
+    </row>
+    <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="H10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="B11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="H11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="I11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="35"/>
+    </row>
+    <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="D12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="B13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="B14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1307,180 +1399,256 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>35</v>
-      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>36</v>
+      <c r="C18" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>39</v>
+      <c r="G18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>38</v>
+      <c r="C19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>40</v>
+      <c r="G19" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="37"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="G20" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="10"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>33</v>
+      <c r="C22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>34</v>
+      <c r="C23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="28" t="s">
-        <v>42</v>
+      <c r="G23" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>45</v>
+      <c r="C24" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="28" t="s">
-        <v>41</v>
+      <c r="G24" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="40" t="s">
+        <v>49</v>
+      </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="33">
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="56">
   <si>
     <t>1.12.2</t>
   </si>
@@ -54,9 +54,6 @@
     <t>1.20.1</t>
   </si>
   <si>
-    <t>1.20.2</t>
-  </si>
-  <si>
     <t>LTS</t>
   </si>
   <si>
@@ -186,13 +183,16 @@
     <t>FM/QM</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Planned/P</t>
   </si>
   <si>
-    <t>P</t>
+    <t>1.20.3</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>21.11.2023, 19:00</t>
   </si>
 </sst>
 </file>
@@ -440,12 +440,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,32 +471,38 @@
     <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,864 +784,900 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N26" sqref="A1:N26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="3" max="10" width="36.7109375" customWidth="1"/>
-    <col min="11" max="14" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="13" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="34" t="s">
+    <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="33"/>
-    </row>
-    <row r="2" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="39" t="s">
+      <c r="M1" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="39" t="s">
+      <c r="D4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="D7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="B9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="B11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="35"/>
-    </row>
-    <row r="4" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="35"/>
-    </row>
-    <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="35"/>
-    </row>
-    <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="35"/>
-    </row>
-    <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C12" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C16" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="35"/>
-    </row>
-    <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="35"/>
-    </row>
-    <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="35"/>
-    </row>
-    <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="35"/>
-    </row>
-    <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="35"/>
-    </row>
-    <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="35"/>
-    </row>
-    <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="35"/>
-    </row>
-    <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="10"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="11"/>
+      <c r="D21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="H21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="10"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-    </row>
-    <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="F24" s="10"/>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="25" t="s">
-        <v>42</v>
-      </c>
+      <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="25" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="10"/>
+      <c r="J25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="34" t="s">
+        <v>46</v>
+      </c>
       <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
+  <mergeCells count="16">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -1649,6 +1685,11 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1671,25 +1712,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -186,13 +186,13 @@
     <t>Planned/P</t>
   </si>
   <si>
-    <t>1.20.3</t>
-  </si>
-  <si>
     <t>LF</t>
   </si>
   <si>
-    <t>21.11.2023, 19:00</t>
+    <t>1.20.4</t>
+  </si>
+  <si>
+    <t>07.12.2023, 21:33</t>
   </si>
 </sst>
 </file>
@@ -486,23 +486,23 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:M28"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M28" sqref="A1:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,63 +799,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="35" t="s">
-        <v>53</v>
+      <c r="M1" s="39" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="30" t="s">
@@ -890,9 +890,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="40" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="35" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="30" t="s">
@@ -933,7 +933,7 @@
       <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -968,13 +968,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -1009,9 +1009,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="35" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="30" t="s">
@@ -1052,7 +1052,7 @@
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -1090,10 +1090,10 @@
       <c r="A9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
@@ -1132,8 +1132,8 @@
       <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>50</v>
+      <c r="C10" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>27</v>
@@ -1159,8 +1159,8 @@
       <c r="K10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>12</v>
+      <c r="L10" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="M10" s="28" t="s">
         <v>11</v>
@@ -1173,7 +1173,7 @@
       <c r="B11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="16" t="s">
@@ -1214,8 +1214,8 @@
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>54</v>
+      <c r="C12" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>27</v>
@@ -1255,8 +1255,8 @@
       <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>54</v>
+      <c r="C13" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>14</v>
@@ -1296,8 +1296,8 @@
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>54</v>
+      <c r="C14" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>27</v>
@@ -1337,8 +1337,8 @@
       <c r="B15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>54</v>
+      <c r="C15" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>14</v>
@@ -1378,8 +1378,8 @@
       <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>54</v>
+      <c r="C16" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>14</v>
@@ -1419,8 +1419,8 @@
       <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>54</v>
+      <c r="C17" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>14</v>
@@ -1674,21 +1674,21 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:C2"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="56">
   <si>
     <t>1.12.2</t>
   </si>
@@ -489,20 +489,20 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M28" sqref="A1:M28"/>
+      <selection sqref="A1:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,60 +799,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="35" t="s">
@@ -890,8 +890,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="35" t="s">
         <v>51</v>
       </c>
@@ -927,10 +927,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -968,38 +968,34 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>14</v>
       </c>
       <c r="L6" s="31" t="s">
         <v>12</v>
@@ -1008,35 +1004,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
+    <row r="7" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="L7" s="31" t="s">
         <v>12</v>
@@ -1045,39 +1045,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
+    <row r="8" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>14</v>
       </c>
       <c r="L8" s="31" t="s">
         <v>12</v>
@@ -1088,12 +1084,14 @@
     </row>
     <row r="9" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
@@ -1115,28 +1113,26 @@
       <c r="J9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>14</v>
+      <c r="K9" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="L9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="30" t="s">
-        <v>14</v>
+      <c r="M9" s="28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>14</v>
@@ -1153,31 +1149,31 @@
       <c r="I10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>14</v>
+      <c r="J10" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>11</v>
+      <c r="L10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>14</v>
@@ -1191,17 +1187,17 @@
       <c r="H11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>12</v>
+      <c r="I11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>11</v>
@@ -1212,13 +1208,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>14</v>
@@ -1229,46 +1225,46 @@
       <c r="G12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>10</v>
+      <c r="H12" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>14</v>
+      <c r="J12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>20</v>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>27</v>
+      <c r="E13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>10</v>
@@ -1293,29 +1289,29 @@
       <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>21</v>
+      <c r="B14" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>14</v>
+      <c r="F14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>14</v>
@@ -1335,19 +1331,19 @@
         <v>28</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>27</v>
+      <c r="E15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>14</v>
@@ -1375,8 +1371,8 @@
       <c r="A16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>25</v>
+      <c r="B16" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>53</v>
@@ -1384,8 +1380,8 @@
       <c r="D16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>14</v>
+      <c r="E16" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>27</v>
@@ -1416,8 +1412,8 @@
       <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>26</v>
+      <c r="B17" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>53</v>
@@ -1428,8 +1424,8 @@
       <c r="E17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>14</v>
+      <c r="F17" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>14</v>
@@ -1440,8 +1436,8 @@
       <c r="I17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="18" t="s">
-        <v>10</v>
+      <c r="J17" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>14</v>
@@ -1454,19 +1450,45 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="A18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -1487,21 +1509,13 @@
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -1510,103 +1524,103 @@
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="25" t="s">
-        <v>9</v>
+      <c r="D21" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="28" t="s">
-        <v>52</v>
+      <c r="H21" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="32"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="26" t="s">
-        <v>10</v>
+      <c r="D22" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="29" t="s">
-        <v>14</v>
+      <c r="H22" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="H23" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="10"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="34" t="s">
-        <v>45</v>
+      <c r="H25" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="I25" s="10"/>
-      <c r="J25" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -1616,19 +1630,19 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1639,41 +1653,72 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="20" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="23" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="34" t="s">
+        <v>48</v>
+      </c>
       <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="J28" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
+    <row r="29" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
@@ -1684,12 +1729,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>1.12.2</t>
   </si>
@@ -153,44 +153,44 @@
     <t>NF - NeoForge</t>
   </si>
   <si>
-    <t>FM - Fabric</t>
-  </si>
-  <si>
-    <t>QM - Quilt</t>
-  </si>
-  <si>
-    <t>FM/QM</t>
-  </si>
-  <si>
     <t>1.20.4</t>
   </si>
   <si>
-    <t>NF/LF</t>
-  </si>
-  <si>
-    <t>LexForge</t>
+    <t>© 2019-2024 MomentariyModder. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>- removed from access to Modrinth and CurseForge</t>
+  </si>
+  <si>
+    <t>NLF</t>
+  </si>
+  <si>
+    <t>FQM</t>
+  </si>
+  <si>
+    <t>NLF - NeoLexForge</t>
+  </si>
+  <si>
+    <t>FQM - FabricQuilt</t>
+  </si>
+  <si>
+    <t>04.04.2023, 05:00</t>
   </si>
   <si>
     <t>LF - LexForge</t>
   </si>
   <si>
-    <t>© 2019-2024 MomentariyModder. All Rights Reserved.</t>
-  </si>
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>04.03.2023, 06:05</t>
-  </si>
-  <si>
-    <t>- removed from access to Modrinth and CurseForge</t>
+    <t>LF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,14 +280,6 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="0"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
@@ -470,9 +462,6 @@
     <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -482,34 +471,37 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,7 +787,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K19" sqref="K18:K19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,86 +801,86 @@
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36"/>
       <c r="B1" s="36"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="35"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="C3" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="19" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="N3" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="28"/>
@@ -909,20 +901,20 @@
       <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="40" t="s">
+      <c r="L4" s="40"/>
+      <c r="M4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="40"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="28"/>
@@ -939,20 +931,20 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="40" t="s">
+      <c r="L5" s="40"/>
+      <c r="M5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="40"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="28"/>
@@ -969,14 +961,14 @@
       <c r="J6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="40" t="s">
+      <c r="L6" s="40"/>
+      <c r="M6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="40"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -997,16 +989,14 @@
       <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="33"/>
+      <c r="M7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="40"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1027,20 +1017,20 @@
         <v>10</v>
       </c>
       <c r="J8" s="28"/>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="40"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="28"/>
@@ -1053,14 +1043,14 @@
         <v>10</v>
       </c>
       <c r="J9" s="28"/>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="40" t="s">
+      <c r="L9" s="40"/>
+      <c r="M9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="40"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -1079,12 +1069,12 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
+      <c r="K10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="41"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -1109,8 +1099,8 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1139,8 +1129,8 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1161,8 +1151,8 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1185,8 +1175,8 @@
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -1207,8 +1197,8 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -1229,8 +1219,8 @@
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1279,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
@@ -1362,7 +1352,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1383,8 +1373,8 @@
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="31" t="s">
-        <v>41</v>
+      <c r="G24" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="22" t="s">
@@ -1407,12 +1397,12 @@
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="31" t="s">
-        <v>42</v>
+      <c r="G25" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -1427,12 +1417,12 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="31" t="s">
-        <v>43</v>
+      <c r="G26" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -1472,6 +1462,10 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="D1:D2"/>
@@ -1479,10 +1473,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>1.12.2</t>
   </si>
@@ -177,20 +177,20 @@
     <t>FQM - FabricQuilt</t>
   </si>
   <si>
-    <t>04.04.2023, 05:00</t>
-  </si>
-  <si>
     <t>LF - LexForge</t>
   </si>
   <si>
     <t>LF</t>
+  </si>
+  <si>
+    <t>05.04.2023, 06:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +280,14 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
@@ -377,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,28 +488,31 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,70 +810,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="38"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="19" t="s">
         <v>46</v>
       </c>
@@ -901,14 +912,16 @@
       <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="42" t="s">
+      <c r="L4" s="38"/>
+      <c r="M4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -931,14 +944,14 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="42" t="s">
+      <c r="L5" s="38"/>
+      <c r="M5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="42"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
@@ -961,14 +974,14 @@
       <c r="J6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="42" t="s">
+      <c r="L6" s="38"/>
+      <c r="M6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -993,10 +1006,10 @@
         <v>12</v>
       </c>
       <c r="L7" s="33"/>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1021,10 +1034,10 @@
         <v>12</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -1043,14 +1056,14 @@
         <v>10</v>
       </c>
       <c r="J9" s="28"/>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="42" t="s">
+      <c r="L9" s="38"/>
+      <c r="M9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="36"/>
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -1069,12 +1082,12 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
+      <c r="K10" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -1099,8 +1112,8 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1129,8 +1142,8 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1151,8 +1164,8 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1175,8 +1188,8 @@
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -1197,8 +1210,8 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -1219,8 +1232,8 @@
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1352,7 +1365,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1422,7 +1435,7 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -1447,21 +1460,7 @@
       <c r="N27" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N16"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="K6:L6"/>
+  <mergeCells count="24">
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="M1:N2"/>
@@ -1473,6 +1472,19 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N16"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>1.12.2</t>
   </si>
@@ -183,7 +183,7 @@
     <t>LF</t>
   </si>
   <si>
-    <t>05.04.2023, 06:45</t>
+    <t>16.04.2023, 03:00</t>
   </si>
 </sst>
 </file>
@@ -488,19 +488,7 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -509,10 +497,22 @@
     <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N27" sqref="A1:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,70 +810,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="40"/>
+      <c r="N1" s="39"/>
     </row>
     <row r="2" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="3" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="19" t="s">
         <v>46</v>
       </c>
@@ -912,14 +912,14 @@
       <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="41"/>
       <c r="M4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="36" t="s">
+      <c r="L5" s="41"/>
+      <c r="M5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
@@ -974,14 +974,16 @@
       <c r="J6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="36" t="s">
+      <c r="L6" s="41"/>
+      <c r="M6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1006,10 +1008,10 @@
         <v>12</v>
       </c>
       <c r="L7" s="33"/>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="36"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1034,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="36"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -1056,14 +1058,14 @@
         <v>10</v>
       </c>
       <c r="J9" s="28"/>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="36" t="s">
+      <c r="L9" s="41"/>
+      <c r="M9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="36"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -1082,12 +1084,12 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
+      <c r="K10" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -1112,8 +1114,8 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1142,8 +1144,8 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1164,8 +1166,8 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1188,8 +1190,8 @@
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -1210,8 +1212,8 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -1232,8 +1234,8 @@
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1460,7 +1462,19 @@
       <c r="N27" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N16"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="M1:N2"/>
@@ -1472,19 +1486,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N16"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>1.12.2</t>
   </si>
@@ -183,14 +183,20 @@
     <t>LF</t>
   </si>
   <si>
-    <t>16.04.2023, 03:00</t>
+    <t>SpongeBob Squarepants Reload II</t>
+  </si>
+  <si>
+    <t>1.20.6</t>
+  </si>
+  <si>
+    <t>11.05.2024, 19:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +298,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -385,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,9 +493,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -491,29 +502,38 @@
     <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N27" sqref="A1:N27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P28" sqref="A1:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,74 +826,80 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
     <col min="3" max="10" width="36.7109375" customWidth="1"/>
-    <col min="11" max="14" width="18.7109375" customWidth="1"/>
+    <col min="11" max="16" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="40" t="s">
+    <row r="1" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="39"/>
-    </row>
-    <row r="2" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-    </row>
-    <row r="3" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="42"/>
+    </row>
+    <row r="2" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="19" t="s">
         <v>46</v>
       </c>
@@ -886,8 +912,14 @@
       <c r="N3" s="19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>28</v>
       </c>
@@ -912,18 +944,22 @@
       <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="34" t="s">
+      <c r="L4" s="40"/>
+      <c r="M4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="38"/>
+    </row>
+    <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>28</v>
       </c>
@@ -944,16 +980,22 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="44" t="s">
+      <c r="L5" s="40"/>
+      <c r="M5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="44"/>
-    </row>
-    <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -974,18 +1016,22 @@
       <c r="J6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="34" t="s">
+      <c r="L6" s="40"/>
+      <c r="M6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>28</v>
       </c>
@@ -1004,136 +1050,148 @@
       <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="44" t="s">
+      <c r="L7" s="40"/>
+      <c r="M7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="44"/>
-    </row>
-    <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="N7" s="38"/>
+      <c r="O7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="38"/>
+    </row>
+    <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="34" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="44" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="44"/>
-    </row>
-    <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="N8" s="38"/>
+      <c r="O8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="38"/>
+    </row>
+    <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="37"/>
+      <c r="M9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="37"/>
+      <c r="O9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="44"/>
-    </row>
-    <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>27</v>
-      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="J10" s="28"/>
-      <c r="K10" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-    </row>
-    <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="38"/>
+    </row>
+    <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>10</v>
-      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-    </row>
-    <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="41"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+    </row>
+    <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="17" t="s">
         <v>10</v>
       </c>
@@ -1144,45 +1202,55 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-    </row>
-    <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+    </row>
+    <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="B13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-    </row>
-    <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+    </row>
+    <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -1190,20 +1258,24 @@
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-    </row>
-    <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+    </row>
+    <row r="15" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>25</v>
+      <c r="B15" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="26" t="s">
-        <v>27</v>
+      <c r="D15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
@@ -1212,48 +1284,60 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-    </row>
-    <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+    </row>
+    <row r="16" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>26</v>
+      <c r="B16" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="E16" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="17" t="s">
-        <v>10</v>
-      </c>
+      <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-    </row>
-    <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+    </row>
+    <row r="18" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1268,213 +1352,248 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="24" t="s">
-        <v>9</v>
+      <c r="C20" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="27" t="s">
-        <v>11</v>
+      <c r="G20" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-    </row>
-    <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="25" t="s">
-        <v>10</v>
+      <c r="C21" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="H21" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+    </row>
+    <row r="22" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="21"/>
+      <c r="C22" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="10"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="35" t="s">
-        <v>48</v>
+      <c r="G24" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="30" t="s">
-        <v>41</v>
+      <c r="G25" s="34" t="s">
+        <v>48</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="30" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="30" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="J27" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N16"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="K6:L6"/>
+  <mergeCells count="32">
+    <mergeCell ref="O12:P17"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="M1:N2"/>
@@ -1486,6 +1605,18 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N17"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
   <si>
     <t>1.12.2</t>
   </si>
@@ -189,14 +189,14 @@
     <t>1.20.6</t>
   </si>
   <si>
-    <t>11.05.2024, 19:00</t>
+    <t>24.05.2024, 04:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +306,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -399,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,16 +516,13 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -532,8 +537,17 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P28" sqref="A1:P28"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,76 +844,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="42"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="19" t="s">
         <v>46</v>
       </c>
@@ -944,20 +958,20 @@
       <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="40"/>
+      <c r="K4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="46"/>
       <c r="M4" s="33" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="38"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -980,20 +994,20 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="40"/>
+      <c r="K5" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="46"/>
       <c r="M5" s="33" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="38"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
@@ -1016,20 +1030,20 @@
       <c r="J6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="40"/>
+      <c r="K6" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="46"/>
       <c r="M6" s="33" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="38"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1050,18 +1064,20 @@
       <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="46"/>
+      <c r="M7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="38" t="s">
+      <c r="N7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38" t="s">
+      <c r="O7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="38"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -1082,24 +1098,24 @@
         <v>10</v>
       </c>
       <c r="J8" s="37"/>
-      <c r="K8" s="33" t="s">
-        <v>12</v>
+      <c r="K8" s="47" t="s">
+        <v>10</v>
       </c>
       <c r="L8" s="37"/>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38" t="s">
+      <c r="N8" s="40"/>
+      <c r="O8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="38"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="37"/>
@@ -1140,18 +1156,18 @@
         <v>10</v>
       </c>
       <c r="J10" s="28"/>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="38"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="48"/>
     </row>
     <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -1170,10 +1186,10 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="41"/>
+      <c r="K11" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="45"/>
       <c r="M11" s="39"/>
       <c r="N11" s="39"/>
       <c r="O11" s="39"/>
@@ -1584,16 +1600,18 @@
       <c r="P28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="O12:P17"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
+  <mergeCells count="31">
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N17"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="M1:N2"/>
@@ -1605,18 +1623,15 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N17"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O12:P17"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>1.12.2</t>
   </si>
@@ -159,9 +159,6 @@
     <t>© 2019-2024 MomentariyModder. All Rights Reserved.</t>
   </si>
   <si>
-    <t>NF</t>
-  </si>
-  <si>
     <t>- removed from access to Modrinth and CurseForge</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>FQM - FabricQuilt</t>
   </si>
   <si>
-    <t>LF - LexForge</t>
-  </si>
-  <si>
     <t>LF</t>
   </si>
   <si>
@@ -189,7 +183,16 @@
     <t>1.20.6</t>
   </si>
   <si>
-    <t>24.05.2024, 04:30</t>
+    <t>NeoForge</t>
+  </si>
+  <si>
+    <t>LF - Forge</t>
+  </si>
+  <si>
+    <t>1.21.x</t>
+  </si>
+  <si>
+    <t>20.06.2024, 03:00</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,9 +504,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -525,6 +525,21 @@
     <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,17 +552,11 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:N8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O28" sqref="A1:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,100 +849,94 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
     <col min="3" max="10" width="36.7109375" customWidth="1"/>
-    <col min="11" max="16" width="18.7109375" customWidth="1"/>
+    <col min="11" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="15" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+    <row r="1" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="41"/>
-    </row>
-    <row r="2" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-    </row>
-    <row r="3" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="N1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="O1" s="45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+    </row>
+    <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>28</v>
       </c>
@@ -958,22 +961,23 @@
       <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="33" t="s">
+      <c r="L4" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="40"/>
-    </row>
-    <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>28</v>
       </c>
@@ -994,22 +998,21 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="33" t="s">
+      <c r="K5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="40"/>
-    </row>
-    <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
@@ -1030,22 +1033,23 @@
       <c r="J6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="33" t="s">
+      <c r="L6" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="40"/>
-    </row>
-    <row r="7" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>28</v>
       </c>
@@ -1064,82 +1068,79 @@
       <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="33" t="s">
+      <c r="K7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="44"/>
+      <c r="M7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="40"/>
-    </row>
-    <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="40" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="40"/>
-    </row>
-    <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="35" t="s">
+      <c r="B9" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="35" t="s">
+      <c r="L9" s="36"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="37"/>
-    </row>
-    <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>29</v>
       </c>
@@ -1156,20 +1157,21 @@
         <v>10</v>
       </c>
       <c r="J10" s="28"/>
-      <c r="K10" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="48" t="s">
+      <c r="K10" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48" t="s">
+      <c r="N10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="48"/>
-    </row>
-    <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
@@ -1186,16 +1188,15 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-    </row>
-    <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="44"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="50"/>
+    </row>
+    <row r="12" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>28</v>
       </c>
@@ -1218,12 +1219,11 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-    </row>
-    <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>28</v>
       </c>
@@ -1250,12 +1250,11 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-    </row>
-    <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>28</v>
       </c>
@@ -1274,12 +1273,11 @@
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-    </row>
-    <row r="15" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>28</v>
       </c>
@@ -1300,12 +1298,11 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-    </row>
-    <row r="16" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>28</v>
       </c>
@@ -1324,12 +1321,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-    </row>
-    <row r="17" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>28</v>
       </c>
@@ -1348,12 +1344,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1369,9 +1364,8 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1387,9 +1381,8 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="23" t="s">
@@ -1404,7 +1397,7 @@
         <v>27</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
@@ -1413,9 +1406,8 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="24" t="s">
@@ -1438,10 +1430,9 @@
       <c r="L21" s="11"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-    </row>
-    <row r="22" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="25" t="s">
@@ -1463,9 +1454,8 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1481,9 +1471,8 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="19" t="s">
@@ -1495,7 +1484,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1505,9 +1494,8 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="25" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="19" t="s">
@@ -1518,8 +1506,8 @@
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="34" t="s">
-        <v>48</v>
+      <c r="G25" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1531,9 +1519,8 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="26" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="19" t="s">
@@ -1557,9 +1544,8 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="27" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1567,21 +1553,20 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1597,24 +1582,16 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N17"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
+  <mergeCells count="21">
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N12:N17"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C3:J3"/>
-    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -1623,15 +1600,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="O12:P17"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -192,7 +192,7 @@
     <t>1.21.x</t>
   </si>
   <si>
-    <t>20.06.2024, 03:00</t>
+    <t>19.07.2024, 15:00 (MSK)</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,13 +534,19 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -552,11 +558,8 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O28" sqref="A1:O28"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,87 +857,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="48" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="46" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="19" t="s">
         <v>45</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -967,11 +970,11 @@
       <c r="L4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="42" t="s">
         <v>12</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>11</v>
       </c>
       <c r="O4" s="39" t="s">
         <v>11</v>
@@ -998,12 +1001,12 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="42" t="s">
-        <v>12</v>
+      <c r="K5" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="51"/>
+      <c r="M5" s="43" t="s">
+        <v>10</v>
       </c>
       <c r="N5" s="39" t="s">
         <v>11</v>
@@ -1039,8 +1042,8 @@
       <c r="L6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="42" t="s">
-        <v>12</v>
+      <c r="M6" s="43" t="s">
+        <v>10</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>11</v>
@@ -1068,12 +1071,12 @@
       <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="42" t="s">
-        <v>12</v>
+      <c r="K7" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="51"/>
+      <c r="M7" s="43" t="s">
+        <v>10</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>11</v>
@@ -1157,10 +1160,10 @@
         <v>10</v>
       </c>
       <c r="J10" s="28"/>
-      <c r="K10" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="44"/>
+      <c r="K10" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="51"/>
       <c r="M10" s="42" t="s">
         <v>12</v>
       </c>
@@ -1188,13 +1191,13 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="44"/>
+      <c r="K11" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="51"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
-      <c r="O11" s="50"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1219,8 +1222,8 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
       <c r="O12" s="38"/>
     </row>
     <row r="13" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,8 +1253,8 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
       <c r="O13" s="38"/>
     </row>
     <row r="14" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1273,8 +1276,8 @@
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
       <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,8 +1301,8 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
       <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1311,8 +1314,8 @@
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="26" t="s">
-        <v>27</v>
+      <c r="E16" s="43" t="s">
+        <v>10</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -1321,8 +1324,8 @@
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
       <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,8 +1347,8 @@
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
       <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1585,6 +1588,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N12:N17"/>
@@ -1601,11 +1609,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
   <si>
     <t>1.12.2</t>
   </si>
@@ -141,9 +141,6 @@
     <t>- planned support</t>
   </si>
   <si>
-    <t>- no information, or no plans</t>
-  </si>
-  <si>
     <t>momentariymodder.xyz</t>
   </si>
   <si>
@@ -192,7 +189,10 @@
     <t>1.21.x</t>
   </si>
   <si>
-    <t>19.07.2024, 15:00 (MSK)</t>
+    <t>- no information, or no plans, or cancelled</t>
+  </si>
+  <si>
+    <t>21.07.2024, 11:00 (MSK)</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,13 +540,22 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -556,9 +565,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,7 +850,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:O28"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,87 +863,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="46" t="s">
+      <c r="L1" s="47"/>
+      <c r="M1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -1001,15 +1007,15 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="51"/>
+      <c r="K5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="48"/>
       <c r="M5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="39" t="s">
-        <v>11</v>
+      <c r="N5" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="O5" s="39" t="s">
         <v>11</v>
@@ -1045,8 +1051,8 @@
       <c r="M6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="39" t="s">
-        <v>11</v>
+      <c r="N6" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="O6" s="39" t="s">
         <v>11</v>
@@ -1071,15 +1077,15 @@
       <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="51"/>
+      <c r="K7" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="48"/>
       <c r="M7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="39" t="s">
-        <v>11</v>
+      <c r="N7" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="O7" s="39" t="s">
         <v>11</v>
@@ -1089,23 +1095,19 @@
       <c r="A8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>40</v>
+      <c r="B8" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>10</v>
-      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="41" t="s">
-        <v>10</v>
+      <c r="K8" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="L8" s="36"/>
       <c r="M8" s="38"/>
@@ -1117,27 +1119,31 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="39" t="s">
-        <v>11</v>
+      <c r="A9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="48"/>
+      <c r="M9" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="O9" s="39" t="s">
         <v>11</v>
@@ -1145,211 +1151,207 @@
     </row>
     <row r="10" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="17" t="s">
-        <v>10</v>
-      </c>
+      <c r="I10" s="28"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>11</v>
-      </c>
+      <c r="K10" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="48"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="44"/>
     </row>
     <row r="11" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="A11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="45"/>
+    </row>
+    <row r="12" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="45"/>
+    </row>
+    <row r="13" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="45"/>
+    </row>
+    <row r="15" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="44"/>
-    </row>
-    <row r="12" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="45"/>
+    </row>
+    <row r="16" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="B16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="45"/>
+    </row>
+    <row r="17" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="38"/>
+      <c r="B17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="36"/>
+      <c r="K17" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="36"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
     </row>
     <row r="18" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1400,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
@@ -1448,7 +1450,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="28"/>
       <c r="H22" s="20" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
@@ -1487,7 +1489,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1510,12 +1512,12 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1535,12 +1537,12 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1556,7 +1558,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1588,15 +1590,8 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N12:N17"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="M11:M16"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="M1:M2"/>
@@ -1608,6 +1603,13 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t>1.12.2</t>
   </si>
@@ -186,13 +186,13 @@
     <t>LF - Forge</t>
   </si>
   <si>
-    <t>1.21.x</t>
-  </si>
-  <si>
     <t>- no information, or no plans, or cancelled</t>
   </si>
   <si>
     <t>21.07.2024, 11:00 (MSK)</t>
+  </si>
+  <si>
+    <t>1.21.0</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,16 +546,13 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -564,7 +561,19 @@
     <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,87 +872,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="47" t="s">
-        <v>53</v>
+      <c r="O1" s="56" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="53"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
     </row>
     <row r="3" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="19" t="s">
         <v>44</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
     </row>
     <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -1007,10 +1016,10 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="48"/>
+      <c r="K5" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="54"/>
       <c r="M5" s="43" t="s">
         <v>10</v>
       </c>
@@ -1077,10 +1086,10 @@
       <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="48"/>
+      <c r="K7" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="54"/>
       <c r="M7" s="43" t="s">
         <v>10</v>
       </c>
@@ -1111,9 +1120,7 @@
       </c>
       <c r="L8" s="36"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="39" t="s">
-        <v>11</v>
-      </c>
+      <c r="N8" s="48"/>
       <c r="O8" s="39" t="s">
         <v>11</v>
       </c>
@@ -1135,18 +1142,18 @@
         <v>10</v>
       </c>
       <c r="J9" s="28"/>
-      <c r="K9" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="42" t="s">
+      <c r="K9" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="54"/>
+      <c r="M9" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="42" t="s">
         <v>12</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1166,10 +1173,10 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="48"/>
+      <c r="K10" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="54"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
       <c r="O10" s="44"/>
@@ -1450,7 +1457,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="28"/>
       <c r="H22" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
@@ -1563,7 +1570,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1590,6 +1597,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="N11:N16"/>
     <mergeCell ref="M11:M16"/>
     <mergeCell ref="A1:B3"/>
@@ -1606,11 +1618,6 @@
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -189,10 +189,10 @@
     <t>- no information, or no plans, or cancelled</t>
   </si>
   <si>
-    <t>21.07.2024, 11:00 (MSK)</t>
-  </si>
-  <si>
     <t>1.21.0</t>
+  </si>
+  <si>
+    <t>06.08.2024, 08:30 (MSK)</t>
   </si>
 </sst>
 </file>
@@ -552,6 +552,18 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,19 +573,7 @@
     <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,7 +859,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O2"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,9 +872,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="53" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="52" t="s">
@@ -908,14 +908,14 @@
       <c r="N1" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="56" t="s">
-        <v>55</v>
+      <c r="O1" s="51" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="53"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -930,29 +930,29 @@
       <c r="O2" s="52"/>
     </row>
     <row r="3" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="19" t="s">
         <v>44</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -1016,10 +1016,10 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="54"/>
+      <c r="K5" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="49"/>
       <c r="M5" s="43" t="s">
         <v>10</v>
       </c>
@@ -1086,10 +1086,10 @@
       <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="54"/>
+      <c r="K7" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="49"/>
       <c r="M7" s="43" t="s">
         <v>10</v>
       </c>
@@ -1142,10 +1142,10 @@
         <v>10</v>
       </c>
       <c r="J9" s="28"/>
-      <c r="K9" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="54"/>
+      <c r="K9" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="49"/>
       <c r="M9" s="47" t="s">
         <v>10</v>
       </c>
@@ -1173,10 +1173,10 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="54"/>
+      <c r="K10" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="49"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
       <c r="O10" s="44"/>
@@ -1204,8 +1204,8 @@
       <c r="J11" s="45"/>
       <c r="K11" s="45"/>
       <c r="L11" s="45"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="45"/>
     </row>
     <row r="12" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1235,8 +1235,8 @@
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
       <c r="L12" s="45"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="45"/>
     </row>
     <row r="13" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,8 +1258,8 @@
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
       <c r="L13" s="45"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="45"/>
     </row>
     <row r="14" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,8 +1283,8 @@
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
       <c r="L14" s="45"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="45"/>
     </row>
     <row r="15" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1306,8 +1306,8 @@
       <c r="J15" s="45"/>
       <c r="K15" s="45"/>
       <c r="L15" s="45"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="45"/>
     </row>
     <row r="16" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,8 +1329,8 @@
       <c r="J16" s="45"/>
       <c r="K16" s="45"/>
       <c r="L16" s="45"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="45"/>
     </row>
     <row r="17" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1597,11 +1597,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="N11:N16"/>
     <mergeCell ref="M11:M16"/>
     <mergeCell ref="A1:B3"/>
@@ -1618,6 +1613,11 @@
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>1.12.2</t>
   </si>
@@ -189,10 +189,13 @@
     <t>- no information, or no plans, or cancelled</t>
   </si>
   <si>
-    <t>1.21.0</t>
-  </si>
-  <si>
-    <t>06.08.2024, 08:30 (MSK)</t>
+    <t>1.21.1</t>
+  </si>
+  <si>
+    <t>It's All About Money Reload</t>
+  </si>
+  <si>
+    <t>26.09.2024, 16:30 (MSK)</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,22 +549,13 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -573,7 +567,19 @@
     <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,87 +878,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="56" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="57" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
       <c r="K3" s="19" t="s">
         <v>44</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -988,11 +994,11 @@
       <c r="M4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="42" t="s">
         <v>12</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1016,15 +1022,15 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="49"/>
+      <c r="K5" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="55"/>
       <c r="M5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="42" t="s">
-        <v>12</v>
+      <c r="N5" s="48" t="s">
+        <v>10</v>
       </c>
       <c r="O5" s="39" t="s">
         <v>11</v>
@@ -1051,8 +1057,8 @@
       <c r="J6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="40" t="s">
-        <v>9</v>
+      <c r="K6" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="L6" s="41" t="s">
         <v>10</v>
@@ -1060,8 +1066,8 @@
       <c r="M6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="42" t="s">
-        <v>12</v>
+      <c r="N6" s="48" t="s">
+        <v>10</v>
       </c>
       <c r="O6" s="39" t="s">
         <v>11</v>
@@ -1086,296 +1092,306 @@
       <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="49"/>
+      <c r="K7" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="55"/>
       <c r="M7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="42" t="s">
-        <v>12</v>
+      <c r="N7" s="48" t="s">
+        <v>10</v>
       </c>
       <c r="O7" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="48"/>
+      <c r="B8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="48" t="s">
+        <v>10</v>
+      </c>
       <c r="O8" s="39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>27</v>
-      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="J10" s="28"/>
-      <c r="K10" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="44"/>
+      <c r="K10" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="55"/>
+      <c r="M10" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="45"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="45"/>
+      <c r="B12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="49"/>
     </row>
     <row r="13" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="45"/>
+      <c r="B13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="49"/>
     </row>
     <row r="14" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="45"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="45"/>
+      <c r="B15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="49"/>
     </row>
     <row r="16" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="55"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="49"/>
+    </row>
+    <row r="18" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-    </row>
-    <row r="18" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="36"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
     </row>
     <row r="19" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -1397,21 +1413,13 @@
     <row r="20" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -1422,61 +1430,69 @@
     <row r="21" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="24" t="s">
-        <v>9</v>
+      <c r="C21" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="27" t="s">
-        <v>11</v>
+      <c r="G21" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="25" t="s">
-        <v>10</v>
+      <c r="C22" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="H22" s="20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="21"/>
+      <c r="C23" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="10"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -1485,47 +1501,39 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="33" t="s">
-        <v>46</v>
+      <c r="G25" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -1536,20 +1544,20 @@
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="30" t="s">
-        <v>40</v>
+      <c r="G26" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1560,17 +1568,21 @@
     <row r="27" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="22" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1578,27 +1590,53 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="J28" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
+    <row r="29" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N11:N17"/>
+    <mergeCell ref="M11:M17"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="M1:M2"/>
@@ -1612,12 +1650,7 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -141,9 +141,6 @@
     <t>- planned support</t>
   </si>
   <si>
-    <t>momentariymodder.xyz</t>
-  </si>
-  <si>
     <t>Storage Crate</t>
   </si>
   <si>
@@ -195,7 +192,10 @@
     <t>It's All About Money Reload</t>
   </si>
   <si>
-    <t>26.09.2024, 16:30 (MSK)</t>
+    <t>14.11.2024, 05:00 (MSK)</t>
+  </si>
+  <si>
+    <t>momentariymodder.netlify.app</t>
   </si>
 </sst>
 </file>
@@ -558,6 +558,18 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,19 +579,7 @@
     <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,7 +865,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:O29"/>
+      <selection activeCell="O29" sqref="A1:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,9 +878,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="54" t="s">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="57" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="53" t="s">
@@ -909,19 +909,19 @@
       </c>
       <c r="L1" s="53"/>
       <c r="M1" s="53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
@@ -936,29 +936,29 @@
       <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
+      <c r="M3" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -1022,18 +1022,18 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="55"/>
+      <c r="K5" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="50"/>
       <c r="M5" s="43" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="39" t="s">
-        <v>11</v>
+      <c r="O5" s="42" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1092,18 +1092,18 @@
       <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="55"/>
+      <c r="K7" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="50"/>
       <c r="M7" s="43" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="39" t="s">
-        <v>11</v>
+      <c r="O7" s="42" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
@@ -1129,8 +1129,8 @@
       <c r="N8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="39" t="s">
-        <v>11</v>
+      <c r="O8" s="42" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -1175,10 +1175,10 @@
         <v>10</v>
       </c>
       <c r="J10" s="28"/>
-      <c r="K10" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="55"/>
+      <c r="K10" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="50"/>
       <c r="M10" s="46" t="s">
         <v>10</v>
       </c>
@@ -1208,8 +1208,8 @@
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
       <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1233,8 +1233,8 @@
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="49"/>
     </row>
     <row r="13" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,8 +1256,8 @@
       <c r="J13" s="49"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
       <c r="O13" s="49"/>
     </row>
     <row r="14" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,8 +1283,8 @@
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
       <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,8 +1314,8 @@
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
       <c r="O15" s="49"/>
     </row>
     <row r="16" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,12 +1335,12 @@
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
-      <c r="K16" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="55"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
+      <c r="K16" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="50"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
       <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,8 +1362,8 @@
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
       <c r="O17" s="49"/>
     </row>
     <row r="18" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -1442,7 +1442,7 @@
         <v>27</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
@@ -1490,7 +1490,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="28"/>
       <c r="H23" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
@@ -1529,7 +1529,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1552,12 +1552,12 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="22" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1577,12 +1577,12 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1598,12 +1598,12 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -1630,13 +1630,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N11:N17"/>
-    <mergeCell ref="M11:M17"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="M1:M2"/>
@@ -1649,6 +1642,13 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="K1:L2"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N11:N17"/>
+    <mergeCell ref="M11:M17"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K10:L10"/>
   </mergeCells>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
   <si>
     <t>1.12.2</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Created Spawn Eggs</t>
   </si>
   <si>
-    <t>PerodiumCraft</t>
-  </si>
-  <si>
     <t>SpongeBob Squarepants Reload</t>
   </si>
   <si>
@@ -183,26 +180,38 @@
     <t>LF - Forge</t>
   </si>
   <si>
-    <t>- no information, or no plans, or cancelled</t>
-  </si>
-  <si>
     <t>1.21.1</t>
   </si>
   <si>
     <t>It's All About Money Reload</t>
   </si>
   <si>
-    <t>14.11.2024, 05:00 (MSK)</t>
-  </si>
-  <si>
     <t>momentariymodder.netlify.app</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>- no information, or no plans</t>
+  </si>
+  <si>
+    <t>- support is cancelled</t>
+  </si>
+  <si>
+    <t>28.11.2024, 22:00 (MSK)</t>
+  </si>
+  <si>
+    <t>PerodiumCraft: Old</t>
+  </si>
+  <si>
+    <t>PerodiumCraft: The New Generation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,14 +307,6 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color theme="0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -320,8 +321,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +417,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -413,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,9 +506,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,9 +513,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -510,28 +533,19 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -549,25 +563,13 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -579,7 +581,31 @@
     <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,6 +614,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -862,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O29" sqref="A1:O29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,98 +909,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="57" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="53" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-    </row>
-    <row r="3" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>50</v>
       </c>
       <c r="N3" s="51"/>
       <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
@@ -985,34 +1016,32 @@
       <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="42" t="s">
+      <c r="K4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="17" t="s">
         <v>10</v>
       </c>
@@ -1026,28 +1055,28 @@
         <v>10</v>
       </c>
       <c r="L5" s="50"/>
-      <c r="M5" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="42" t="s">
+      <c r="M5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="17" t="s">
         <v>10</v>
       </c>
@@ -1057,35 +1086,35 @@
       <c r="J6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>11</v>
+      <c r="L6" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="17" t="s">
         <v>10</v>
       </c>
@@ -1096,319 +1125,331 @@
         <v>10</v>
       </c>
       <c r="L7" s="50"/>
-      <c r="M7" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="42" t="s">
+      <c r="M7" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>28</v>
+      <c r="A8" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="39" t="s">
+      <c r="L9" s="33"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="55" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="50"/>
+      <c r="M10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="43"/>
+    </row>
+    <row r="12" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="43"/>
+    </row>
+    <row r="13" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="43"/>
+    </row>
+    <row r="14" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="45"/>
+    </row>
+    <row r="15" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="43"/>
+    </row>
+    <row r="16" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="43"/>
+    </row>
+    <row r="17" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="50"/>
-      <c r="M10" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="49"/>
-    </row>
-    <row r="12" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="49"/>
-    </row>
-    <row r="13" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="C17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="50"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+    </row>
+    <row r="18" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="26" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="43"/>
+    </row>
+    <row r="19" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="49"/>
-    </row>
-    <row r="14" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="49"/>
-    </row>
-    <row r="15" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="49"/>
-    </row>
-    <row r="16" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="44"/>
-    </row>
-    <row r="17" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="49"/>
-    </row>
-    <row r="18" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="36"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-    </row>
-    <row r="19" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="B19" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
     </row>
     <row r="20" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -1430,21 +1471,21 @@
     <row r="21" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26" t="s">
-        <v>27</v>
+      <c r="G21" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -1455,61 +1496,65 @@
     <row r="22" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -1518,47 +1563,39 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-    </row>
-    <row r="26" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="33" t="s">
-        <v>45</v>
+      <c r="G26" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -1572,17 +1609,17 @@
         <v>29</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="30" t="s">
-        <v>39</v>
+      <c r="G27" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="22" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1593,17 +1630,21 @@
     <row r="28" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="30" t="s">
-        <v>46</v>
+      <c r="G28" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="22" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -1611,25 +1652,54 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="J29" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
+    <row r="30" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="M1:M2"/>
@@ -1642,15 +1712,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="K1:L2"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N11:N17"/>
-    <mergeCell ref="M11:M17"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1682,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
   <si>
     <t>1.12.2</t>
   </si>
@@ -198,13 +198,16 @@
     <t>- support is cancelled</t>
   </si>
   <si>
-    <t>28.11.2024, 22:00 (MSK)</t>
-  </si>
-  <si>
     <t>PerodiumCraft: Old</t>
   </si>
   <si>
     <t>PerodiumCraft: The New Generation</t>
+  </si>
+  <si>
+    <t>1.21.4</t>
+  </si>
+  <si>
+    <t>10.12.2024, 08:00 (MSK)</t>
   </si>
 </sst>
 </file>
@@ -575,37 +578,37 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,80 +908,84 @@
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
     <col min="3" max="10" width="36.7109375" customWidth="1"/>
     <col min="11" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="15" width="36.7109375" customWidth="1"/>
+    <col min="13" max="16" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="49" t="s">
+    <row r="1" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="53" t="s">
         <v>48</v>
       </c>
       <c r="O1" s="52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-    </row>
-    <row r="3" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="P1" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+    </row>
+    <row r="3" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="19" t="s">
         <v>42</v>
       </c>
@@ -990,8 +997,9 @@
       </c>
       <c r="N3" s="51"/>
       <c r="O3" s="51"/>
-    </row>
-    <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="51"/>
+    </row>
+    <row r="4" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>27</v>
       </c>
@@ -1029,8 +1037,11 @@
       <c r="O4" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>27</v>
       </c>
@@ -1064,8 +1075,11 @@
       <c r="O5" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>27</v>
       </c>
@@ -1101,8 +1115,11 @@
       <c r="O6" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>27</v>
       </c>
@@ -1134,8 +1151,11 @@
       <c r="O7" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>27</v>
       </c>
@@ -1150,8 +1170,8 @@
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
-      <c r="K8" s="37" t="s">
-        <v>12</v>
+      <c r="K8" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="L8" s="43"/>
       <c r="M8" s="43"/>
@@ -1161,8 +1181,11 @@
       <c r="O8" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>27</v>
       </c>
@@ -1177,19 +1200,20 @@
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="47" t="s">
         <v>54</v>
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="35"/>
-      <c r="N9" s="53" t="s">
+      <c r="N9" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="45"/>
+    </row>
+    <row r="10" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
@@ -1219,8 +1243,11 @@
       <c r="O10" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>27</v>
       </c>
@@ -1242,8 +1269,9 @@
       <c r="M11" s="39"/>
       <c r="N11" s="39"/>
       <c r="O11" s="43"/>
-    </row>
-    <row r="12" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="45"/>
+    </row>
+    <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>27</v>
       </c>
@@ -1267,8 +1295,9 @@
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="43"/>
-    </row>
-    <row r="13" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>27</v>
       </c>
@@ -1280,7 +1309,7 @@
       <c r="E13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="46" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="43"/>
@@ -1292,13 +1321,14 @@
       <c r="M13" s="39"/>
       <c r="N13" s="39"/>
       <c r="O13" s="43"/>
-    </row>
-    <row r="14" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="45"/>
+    </row>
+    <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>10</v>
@@ -1315,13 +1345,14 @@
       <c r="M14" s="39"/>
       <c r="N14" s="39"/>
       <c r="O14" s="45"/>
-    </row>
-    <row r="15" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="45"/>
+    </row>
+    <row r="15" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>59</v>
+      <c r="B15" s="49" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="43"/>
@@ -1333,7 +1364,7 @@
       <c r="H15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="46" t="s">
         <v>54</v>
       </c>
       <c r="J15" s="43"/>
@@ -1342,8 +1373,9 @@
       <c r="M15" s="39"/>
       <c r="N15" s="39"/>
       <c r="O15" s="43"/>
-    </row>
-    <row r="16" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="45"/>
+    </row>
+    <row r="16" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1398,7 @@
       <c r="H16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="46" t="s">
         <v>54</v>
       </c>
       <c r="J16" s="43"/>
@@ -1375,8 +1407,9 @@
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
       <c r="O16" s="43"/>
-    </row>
-    <row r="17" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="45"/>
+    </row>
+    <row r="17" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>29</v>
       </c>
@@ -1400,8 +1433,9 @@
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
-    </row>
-    <row r="18" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="39"/>
+    </row>
+    <row r="18" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>27</v>
       </c>
@@ -1423,8 +1457,9 @@
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
       <c r="O18" s="43"/>
-    </row>
-    <row r="19" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="45"/>
+    </row>
+    <row r="19" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>27</v>
       </c>
@@ -1450,8 +1485,9 @@
       <c r="M19" s="35"/>
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
-    </row>
-    <row r="20" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="45"/>
+    </row>
+    <row r="20" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1467,8 +1503,9 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="37" t="s">
@@ -1492,8 +1529,9 @@
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="23" t="s">
@@ -1504,7 +1542,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="20" t="s">
@@ -1517,8 +1555,9 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="24" t="s">
@@ -1540,11 +1579,12 @@
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
       <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="46" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -1561,8 +1601,9 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1578,8 +1619,9 @@
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="19" t="s">
@@ -1601,8 +1643,9 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="19" t="s">
@@ -1618,16 +1661,17 @@
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
-    </row>
-    <row r="28" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="19" t="s">
@@ -1643,16 +1687,17 @@
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1664,16 +1709,17 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="22" t="s">
-        <v>57</v>
-      </c>
+      <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="L29" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
-    </row>
-    <row r="30" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1689,17 +1735,12 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K4:L4"/>
+  <mergeCells count="21">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="M1:M2"/>
@@ -1712,6 +1753,13 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="K1:L2"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
   <si>
     <t>1.12.2</t>
   </si>
@@ -147,9 +147,6 @@
     <t>1.20.4</t>
   </si>
   <si>
-    <t>© 2019-2024 MomentariyModder. All Rights Reserved.</t>
-  </si>
-  <si>
     <t>- removed from access to Modrinth and CurseForge</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>It's All About Money Reload</t>
   </si>
   <si>
-    <t>momentariymodder.netlify.app</t>
-  </si>
-  <si>
     <t>Canceled</t>
   </si>
   <si>
@@ -207,7 +201,13 @@
     <t>1.21.4</t>
   </si>
   <si>
-    <t>10.12.2024, 08:00 (MSK)</t>
+    <t>momentariymodder.com</t>
+  </si>
+  <si>
+    <t>© 2019-2025 MomentariyModder. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>13.02.2025, 14:00 (MSK)</t>
   </si>
 </sst>
 </file>
@@ -590,16 +590,13 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -609,6 +606,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,7 +899,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,92 +912,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="56" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53" t="s">
+      <c r="L1" s="51"/>
+      <c r="M1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+    </row>
+    <row r="3" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-    </row>
-    <row r="3" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
     </row>
     <row r="4" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -1024,10 +1024,10 @@
       <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="50"/>
+      <c r="K4" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="56"/>
       <c r="M4" s="38" t="s">
         <v>10</v>
       </c>
@@ -1062,10 +1062,10 @@
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="50"/>
+      <c r="K5" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="56"/>
       <c r="M5" s="38" t="s">
         <v>10</v>
       </c>
@@ -1138,10 +1138,10 @@
       <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="50"/>
+      <c r="K7" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="56"/>
       <c r="M7" s="38" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -1190,7 +1190,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -1201,16 +1201,14 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="35"/>
       <c r="N9" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="48" t="s">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O9" s="45"/>
       <c r="P9" s="45"/>
     </row>
     <row r="10" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,10 +1228,10 @@
         <v>10</v>
       </c>
       <c r="J10" s="26"/>
-      <c r="K10" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="50"/>
+      <c r="K10" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="56"/>
       <c r="M10" s="41" t="s">
         <v>10</v>
       </c>
@@ -1310,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
@@ -1328,7 +1326,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>10</v>
@@ -1352,7 +1350,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="43"/>
@@ -1365,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -1399,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -1426,10 +1424,10 @@
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
-      <c r="K17" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="50"/>
+      <c r="K17" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="56"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
@@ -1520,7 +1518,7 @@
         <v>26</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -1570,7 +1568,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="45"/>
       <c r="H23" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
@@ -1585,10 +1583,10 @@
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1633,7 +1631,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1657,14 +1655,14 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
       <c r="L27" s="22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
@@ -1690,7 +1688,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
       <c r="L28" s="22" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
@@ -1705,7 +1703,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1739,6 +1737,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="A1:B3"/>
@@ -1753,13 +1758,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="K1:L2"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
   <si>
     <t>1.12.2</t>
   </si>
@@ -216,9 +216,6 @@
     <t>- discontinued</t>
   </si>
   <si>
-    <t>15.04.2025, 21:00 (MSK)</t>
-  </si>
-  <si>
     <t>Project status:</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Loaders:</t>
+  </si>
+  <si>
+    <t>14.05.2025, 16:30 (MSK)</t>
   </si>
 </sst>
 </file>
@@ -637,34 +637,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,6 +650,33 @@
     </xf>
     <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,98 +979,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="56" t="s">
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
     </row>
     <row r="3" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
     </row>
     <row r="4" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="29" t="s">
         <v>27</v>
       </c>
@@ -1095,10 +1095,10 @@
       <c r="K4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="38" t="s">
         <v>10</v>
       </c>
@@ -1113,7 +1113,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="29" t="s">
         <v>27</v>
       </c>
@@ -1134,10 +1134,10 @@
       <c r="K5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="50"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="38" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="29" t="s">
         <v>27</v>
       </c>
@@ -1173,12 +1173,10 @@
       <c r="K6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="36" t="s">
+      <c r="L6" s="64" t="s">
         <v>10</v>
       </c>
+      <c r="M6" s="64"/>
       <c r="N6" s="38" t="s">
         <v>10</v>
       </c>
@@ -1193,7 +1191,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
@@ -1212,10 +1210,10 @@
       <c r="K7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="50"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="38" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1228,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="29" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1259,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
@@ -1278,10 +1276,10 @@
         <v>10</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="50"/>
+      <c r="M9" s="64"/>
       <c r="N9" s="41" t="s">
         <v>10</v>
       </c>
@@ -1296,7 +1294,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="29" t="s">
         <v>27</v>
       </c>
@@ -1325,7 +1323,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +1348,7 @@
       <c r="Q11" s="45"/>
     </row>
     <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="29" t="s">
         <v>27</v>
       </c>
@@ -1377,7 +1375,7 @@
       <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
@@ -1404,7 +1402,7 @@
       <c r="Q13" s="45"/>
     </row>
     <row r="14" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="29" t="s">
         <v>27</v>
       </c>
@@ -1429,7 +1427,7 @@
       <c r="Q14" s="45"/>
     </row>
     <row r="15" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="29" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1456,7 @@
       <c r="Q15" s="45"/>
     </row>
     <row r="16" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="29" t="s">
         <v>27</v>
       </c>
@@ -1493,7 +1491,7 @@
       <c r="Q16" s="45"/>
     </row>
     <row r="17" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="29" t="s">
         <v>29</v>
       </c>
@@ -1510,17 +1508,17 @@
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="50"/>
+      <c r="M17" s="64"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="29" t="s">
         <v>27</v>
       </c>
@@ -1545,7 +1543,7 @@
       <c r="Q18" s="45"/>
     </row>
     <row r="19" spans="1:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
@@ -1593,16 +1591,16 @@
       <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="64" t="s">
+      <c r="A21" s="56"/>
+      <c r="B21" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="64"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -1616,8 +1614,8 @@
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="20" t="s">
         <v>60</v>
       </c>
@@ -1645,8 +1643,8 @@
       <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="61"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="20" t="s">
         <v>61</v>
       </c>
@@ -1674,8 +1672,8 @@
       <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="20" t="s">
         <v>62</v>
       </c>
@@ -1701,7 +1699,7 @@
       <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1724,7 +1722,7 @@
       <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1743,7 +1741,7 @@
       <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1762,20 +1760,20 @@
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="64"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -18152,7 +18150,7 @@
       <c r="XFD28" s="21"/>
     </row>
     <row r="29" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -18177,7 +18175,7 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="57"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -18204,7 +18202,7 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="57"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -18231,7 +18229,7 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="57"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -18246,7 +18244,7 @@
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -18254,7 +18252,7 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -18273,14 +18271,15 @@
       <c r="Q33" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E28:F28"/>
+  <mergeCells count="28">
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="D3:K3"/>
@@ -18294,13 +18293,13 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="L1:M2"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>1.12.2</t>
   </si>
@@ -150,21 +150,6 @@
     <t>- removed from access to Modrinth and CurseForge</t>
   </si>
   <si>
-    <t>NLF</t>
-  </si>
-  <si>
-    <t>FQM</t>
-  </si>
-  <si>
-    <t>NLF - NeoLexForge</t>
-  </si>
-  <si>
-    <t>FQM - FabricQuilt</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
     <t>SpongeBob Squarepants Reload II</t>
   </si>
   <si>
@@ -172,9 +157,6 @@
   </si>
   <si>
     <t>NeoForge</t>
-  </si>
-  <si>
-    <t>LF - Forge</t>
   </si>
   <si>
     <t>1.21.1</t>
@@ -201,9 +183,6 @@
     <t>© 2019-2025 MomentariyModder. All Rights Reserved.</t>
   </si>
   <si>
-    <t>1.21.5</t>
-  </si>
-  <si>
     <t>PerodiumCraft</t>
   </si>
   <si>
@@ -228,7 +207,40 @@
     <t>Loaders:</t>
   </si>
   <si>
-    <t>14.05.2025, 16:30 (MSK)</t>
+    <t>MF - MinecraftForge</t>
+  </si>
+  <si>
+    <t>NF/MF</t>
+  </si>
+  <si>
+    <t>MinecraftForge</t>
+  </si>
+  <si>
+    <t>FM - Fabric</t>
+  </si>
+  <si>
+    <t>QM - Quilt</t>
+  </si>
+  <si>
+    <t>FM/QM</t>
+  </si>
+  <si>
+    <t>- frozen</t>
+  </si>
+  <si>
+    <t>- support suspended</t>
+  </si>
+  <si>
+    <t>Suspended</t>
+  </si>
+  <si>
+    <t>31.07.2025, 04:30 (MSK)</t>
+  </si>
+  <si>
+    <t>1.21.8*</t>
+  </si>
+  <si>
+    <t>*1.21.2-1.21.7 omitted due to irrelevance</t>
   </si>
 </sst>
 </file>
@@ -370,7 +382,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +491,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -492,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,9 +610,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,21 +671,17 @@
     <xf numFmtId="49" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,8 +698,27 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD33"/>
+  <dimension ref="A1:XFD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="Q33" sqref="A1:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,98 +1021,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="63" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60" t="s">
+      <c r="M1" s="57"/>
+      <c r="N1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="60" t="s">
-        <v>47</v>
+      <c r="O1" s="57" t="s">
+        <v>42</v>
       </c>
-      <c r="P1" s="59" t="s">
-        <v>50</v>
+      <c r="P1" s="56" t="s">
+        <v>44</v>
       </c>
-      <c r="Q1" s="59" t="s">
-        <v>58</v>
+      <c r="Q1" s="56" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
     </row>
     <row r="3" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="62" t="s">
-        <v>45</v>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="59" t="s">
+        <v>62</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="19" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
-      <c r="N3" s="61" t="s">
-        <v>48</v>
+      <c r="N3" s="58" t="s">
+        <v>43</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="29" t="s">
         <v>27</v>
       </c>
@@ -1095,25 +1137,25 @@
       <c r="K4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="38" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="29" t="s">
         <v>27</v>
       </c>
@@ -1134,25 +1176,25 @@
       <c r="K5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="38" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="29" t="s">
         <v>27</v>
       </c>
@@ -1173,25 +1215,25 @@
       <c r="K6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="64"/>
-      <c r="N6" s="38" t="s">
+      <c r="M6" s="55"/>
+      <c r="N6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="48" t="s">
+      <c r="Q6" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
@@ -1210,56 +1252,56 @@
       <c r="K7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="64"/>
-      <c r="N7" s="38" t="s">
+      <c r="M7" s="55"/>
+      <c r="N7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="48" t="s">
+      <c r="Q7" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="36" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="42" t="s">
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="48" t="s">
+      <c r="Q8" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
@@ -1276,222 +1318,222 @@
         <v>10</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="64" t="s">
+      <c r="L9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="41" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="O9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="48" t="s">
+      <c r="Q9" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="47" t="s">
-        <v>52</v>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45" t="s">
+        <v>46</v>
       </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="48" t="s">
-        <v>11</v>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="66" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="45"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="45"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="44"/>
     </row>
     <row r="13" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="46" t="s">
-        <v>52</v>
+      <c r="G13" s="45" t="s">
+        <v>46</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="45"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
     </row>
     <row r="15" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>55</v>
+      <c r="C15" s="48" t="s">
+        <v>49</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="42" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="46" t="s">
-        <v>52</v>
+      <c r="J15" s="45" t="s">
+        <v>46</v>
       </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="45"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="44"/>
     </row>
     <row r="16" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="42" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="46" t="s">
-        <v>52</v>
+      <c r="J16" s="45" t="s">
+        <v>46</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="45"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="44"/>
     </row>
     <row r="17" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="29" t="s">
         <v>29</v>
       </c>
@@ -1501,75 +1543,75 @@
       <c r="D17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="64" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="64"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
     </row>
     <row r="18" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="42" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="45"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="32" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="36" t="s">
+      <c r="K19" s="32"/>
+      <c r="L19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="45"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="44"/>
     </row>
     <row r="20" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -1591,16 +1633,16 @@
       <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="55" t="s">
-        <v>63</v>
+      <c r="A21" s="62"/>
+      <c r="B21" s="61" t="s">
+        <v>56</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="55" t="s">
-        <v>64</v>
+      <c r="E21" s="61" t="s">
+        <v>57</v>
       </c>
-      <c r="F21" s="55"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -1614,13 +1656,13 @@
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="36" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="20" t="s">
@@ -1628,25 +1670,27 @@
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="25" t="s">
-        <v>26</v>
+      <c r="I22" s="45" t="s">
+        <v>46</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="O22" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="23" t="s">
@@ -1657,11 +1701,11 @@
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="48" t="s">
-        <v>11</v>
+      <c r="I23" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -1672,23 +1716,25 @@
       <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="24" t="s">
-        <v>10</v>
+      <c r="E24" s="66" t="s">
+        <v>68</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="45"/>
+      <c r="I24" s="47" t="s">
+        <v>11</v>
+      </c>
       <c r="J24" s="20" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -1699,20 +1745,24 @@
       <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="46" t="s">
-        <v>52</v>
+      <c r="E25" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -1722,7 +1772,7 @@
       <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1731,7 +1781,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -1741,7 +1791,7 @@
       <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1760,24 +1810,24 @@
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="55" t="s">
-        <v>65</v>
+      <c r="E28" s="53" t="s">
+        <v>58</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="55" t="s">
-        <v>66</v>
+      <c r="I28" s="53" t="s">
+        <v>59</v>
       </c>
-      <c r="J28" s="55"/>
+      <c r="J28" s="53"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
+      <c r="N28" s="11"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
@@ -18150,11 +18200,11 @@
       <c r="XFD28" s="21"/>
     </row>
     <row r="29" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="54" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="20" t="s">
@@ -18163,23 +18213,23 @@
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
       <c r="I29" s="28" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="56"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="54" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="20" t="s">
@@ -18187,14 +18237,14 @@
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="31" t="s">
-        <v>43</v>
+      <c r="I30" s="64" t="s">
+        <v>60</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="11"/>
       <c r="M30" s="22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -18202,11 +18252,11 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="56"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="54" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -18215,13 +18265,13 @@
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
       <c r="I31" s="28" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="11"/>
       <c r="M31" s="22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -18229,7 +18279,7 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:16384" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="56"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -18238,13 +18288,13 @@
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
       <c r="I32" s="28" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -18252,7 +18302,7 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -18270,16 +18320,32 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
+    <row r="34" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
+  <mergeCells count="26">
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="D3:K3"/>
@@ -18293,13 +18359,14 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="L1:M2"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
